--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -131,6 +131,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -206,9 +296,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -311,6 +398,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -365,9 +461,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -425,9 +518,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -453,6 +543,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -511,16 +607,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -945,22 +1041,22 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -968,22 +1064,22 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -991,22 +1087,22 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -1014,22 +1110,22 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1037,22 +1133,22 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1060,22 +1156,22 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -1083,22 +1179,22 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1106,22 +1202,22 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1129,22 +1225,22 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1152,22 +1248,22 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
@@ -1175,22 +1271,22 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
@@ -1198,22 +1294,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1221,39 +1317,39 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1264,19 +1360,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1287,19 +1383,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1310,19 +1406,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1333,19 +1429,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1356,19 +1452,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1475,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1498,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1521,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1544,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1567,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1590,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1613,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1636,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1659,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1682,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1609,22 +1705,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -1632,19 +1728,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1751,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1774,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1797,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1820,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1843,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1866,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1793,22 +1889,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1816,19 +1912,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,22 +1935,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1862,22 +1958,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
@@ -1885,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,620 +2004,620 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2529,19 +2625,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,22 +2648,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2575,22 +2671,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2598,19 +2694,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2717,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2644,22 +2740,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>32</v>
@@ -2667,22 +2763,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2690,22 +2786,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2713,22 +2809,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2736,22 +2832,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2759,19 +2855,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2782,19 +2878,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,22 +2901,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2828,19 +2924,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -2851,22 +2947,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -2874,19 +2970,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,22 +2993,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -2920,19 +3016,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,19 +3039,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>20</v>
@@ -2966,19 +3062,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2989,19 +3085,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3012,19 +3108,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>20</v>
@@ -3035,19 +3131,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3154,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3177,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3200,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,22 +3223,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>32</v>
@@ -3150,19 +3246,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3173,22 +3269,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>32</v>
@@ -3196,22 +3292,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>32</v>
@@ -3219,22 +3315,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>32</v>
@@ -3242,19 +3338,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3265,19 +3361,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3288,19 +3384,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3311,19 +3407,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3334,19 +3430,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3357,19 +3453,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3380,19 +3476,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3403,22 +3499,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>32</v>
@@ -3426,19 +3522,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3449,22 +3545,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>32</v>
@@ -3472,22 +3568,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>32</v>
@@ -3495,19 +3591,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3518,19 +3614,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3541,617 +3637,617 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4162,22 +4258,22 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>32</v>
@@ -4185,19 +4281,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4208,24 +4304,944 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2329,7 +2329,7 @@
         <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2338,7 +2338,7 @@
         <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2352,7 +2352,7 @@
         <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2361,7 +2361,7 @@
         <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2375,7 +2375,7 @@
         <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2384,7 +2384,7 @@
         <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2398,7 +2398,7 @@
         <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2407,7 +2407,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2421,7 +2421,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2430,7 +2430,7 @@
         <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2453,7 +2453,7 @@
         <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2467,7 +2467,7 @@
         <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2476,7 +2476,7 @@
         <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2490,7 +2490,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2499,7 +2499,7 @@
         <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2513,7 +2513,7 @@
         <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2522,7 +2522,7 @@
         <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2536,7 +2536,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2545,7 +2545,7 @@
         <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2559,7 +2559,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2568,7 +2568,7 @@
         <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,25 +2579,25 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -2605,19 +2605,19 @@
         <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2628,16 +2628,16 @@
         <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2651,16 +2651,16 @@
         <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2674,7 +2674,7 @@
         <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2683,7 +2683,7 @@
         <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2697,7 +2697,7 @@
         <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2706,7 +2706,7 @@
         <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2720,7 +2720,7 @@
         <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2729,7 +2729,7 @@
         <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2743,16 +2743,16 @@
         <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2766,7 +2766,7 @@
         <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2775,10 +2775,10 @@
         <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2789,7 +2789,7 @@
         <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2798,10 +2798,10 @@
         <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2812,7 +2812,7 @@
         <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2821,10 +2821,10 @@
         <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2835,7 +2835,7 @@
         <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2844,7 +2844,7 @@
         <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
@@ -2858,19 +2858,19 @@
         <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2881,7 +2881,7 @@
         <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -2890,7 +2890,7 @@
         <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2904,19 @@
         <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2927,7 +2927,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2936,7 +2936,7 @@
         <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2959,10 +2959,10 @@
         <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -2973,7 +2973,7 @@
         <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2982,10 +2982,10 @@
         <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -2996,7 +2996,7 @@
         <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3005,10 +3005,10 @@
         <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -3019,7 +3019,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3028,10 +3028,10 @@
         <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>32</v>
@@ -3042,7 +3042,7 @@
         <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3051,10 +3051,10 @@
         <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -3065,7 +3065,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3074,10 +3074,10 @@
         <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>32</v>
@@ -3088,7 +3088,7 @@
         <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3097,7 +3097,7 @@
         <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3111,19 +3111,19 @@
         <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>32</v>
@@ -3134,7 +3134,7 @@
         <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -3143,7 +3143,7 @@
         <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3157,7 +3157,7 @@
         <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3166,7 +3166,7 @@
         <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3180,16 +3180,16 @@
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3203,7 +3203,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3212,10 +3212,10 @@
         <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>32</v>
@@ -3226,7 +3226,7 @@
         <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3235,10 +3235,10 @@
         <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>32</v>
@@ -3249,7 +3249,7 @@
         <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3258,10 +3258,10 @@
         <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>32</v>
@@ -3272,7 +3272,7 @@
         <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3281,7 +3281,7 @@
         <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>20</v>
@@ -3292,22 +3292,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>32</v>
@@ -3318,19 +3318,19 @@
         <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>32</v>
@@ -3341,16 +3341,16 @@
         <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3364,16 +3364,16 @@
         <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3387,7 +3387,7 @@
         <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3396,7 +3396,7 @@
         <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3410,7 +3410,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3419,7 +3419,7 @@
         <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3433,7 +3433,7 @@
         <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3442,7 +3442,7 @@
         <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3456,16 +3456,16 @@
         <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3479,7 +3479,7 @@
         <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3488,10 +3488,10 @@
         <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>32</v>
@@ -3502,7 +3502,7 @@
         <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3511,10 +3511,10 @@
         <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>32</v>
@@ -3525,7 +3525,7 @@
         <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3534,10 +3534,10 @@
         <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>32</v>
@@ -3548,7 +3548,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3557,7 +3557,7 @@
         <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>20</v>
@@ -3571,19 +3571,19 @@
         <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>32</v>
@@ -3594,7 +3594,7 @@
         <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -3603,7 +3603,7 @@
         <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3617,19 +3617,19 @@
         <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>32</v>
@@ -3640,7 +3640,7 @@
         <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3649,7 +3649,7 @@
         <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>20</v>
@@ -3663,7 +3663,7 @@
         <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3672,10 +3672,10 @@
         <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>32</v>
@@ -3686,7 +3686,7 @@
         <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3695,10 +3695,10 @@
         <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>32</v>
@@ -3709,7 +3709,7 @@
         <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3718,10 +3718,10 @@
         <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
@@ -3732,7 +3732,7 @@
         <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3741,10 +3741,10 @@
         <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>32</v>
@@ -3755,7 +3755,7 @@
         <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3764,10 +3764,10 @@
         <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>32</v>
@@ -3778,7 +3778,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3787,10 +3787,10 @@
         <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>32</v>
@@ -3801,7 +3801,7 @@
         <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3810,7 +3810,7 @@
         <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
@@ -3824,19 +3824,19 @@
         <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>32</v>
@@ -3847,7 +3847,7 @@
         <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3856,7 +3856,7 @@
         <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3870,7 +3870,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3879,7 +3879,7 @@
         <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3893,16 +3893,16 @@
         <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3916,7 +3916,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3925,10 +3925,10 @@
         <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>32</v>
@@ -3939,7 +3939,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3948,10 +3948,10 @@
         <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>32</v>
@@ -3962,7 +3962,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3971,10 +3971,10 @@
         <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>32</v>
@@ -3985,7 +3985,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3994,7 +3994,7 @@
         <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>20</v>
@@ -4005,22 +4005,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>32</v>
@@ -4031,16 +4031,16 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4054,16 +4054,16 @@
         <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4077,7 +4077,7 @@
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4086,7 +4086,7 @@
         <v>63</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4100,16 +4100,16 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4123,16 +4123,16 @@
         <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4146,7 +4146,7 @@
         <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
@@ -4155,7 +4155,7 @@
         <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4169,16 +4169,16 @@
         <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4192,7 +4192,7 @@
         <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4201,7 +4201,7 @@
         <v>63</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4215,16 +4215,16 @@
         <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4238,7 +4238,7 @@
         <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -4247,7 +4247,7 @@
         <v>147</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4261,16 +4261,16 @@
         <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4284,7 +4284,7 @@
         <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4293,7 +4293,7 @@
         <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4307,7 +4307,7 @@
         <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4316,7 +4316,7 @@
         <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4330,7 +4330,7 @@
         <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4339,7 +4339,7 @@
         <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4353,16 +4353,16 @@
         <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4376,16 +4376,16 @@
         <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4399,7 +4399,7 @@
         <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4408,7 +4408,7 @@
         <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4422,7 +4422,7 @@
         <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4431,7 +4431,7 @@
         <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4445,7 +4445,7 @@
         <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4454,7 +4454,7 @@
         <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4468,16 +4468,16 @@
         <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4491,7 +4491,7 @@
         <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4500,7 +4500,7 @@
         <v>63</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4511,25 +4511,25 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
@@ -4537,19 +4537,19 @@
         <v>164</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>167</v>
@@ -4560,16 +4560,16 @@
         <v>164</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4583,16 +4583,16 @@
         <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4606,7 +4606,7 @@
         <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4615,7 +4615,7 @@
         <v>165</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4629,7 +4629,7 @@
         <v>164</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4638,7 +4638,7 @@
         <v>165</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4652,7 +4652,7 @@
         <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4661,7 +4661,7 @@
         <v>165</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4675,16 +4675,16 @@
         <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4698,7 +4698,7 @@
         <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4707,10 +4707,10 @@
         <v>165</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>167</v>
@@ -4721,7 +4721,7 @@
         <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -4730,10 +4730,10 @@
         <v>165</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>167</v>
@@ -4744,7 +4744,7 @@
         <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4753,10 +4753,10 @@
         <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>167</v>
@@ -4767,7 +4767,7 @@
         <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -4776,7 +4776,7 @@
         <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>166</v>
@@ -4790,19 +4790,19 @@
         <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>167</v>
@@ -4813,7 +4813,7 @@
         <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4822,7 +4822,7 @@
         <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4836,19 +4836,19 @@
         <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>167</v>
@@ -4859,7 +4859,7 @@
         <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4868,7 +4868,7 @@
         <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>166</v>
@@ -4882,7 +4882,7 @@
         <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4891,10 +4891,10 @@
         <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>167</v>
@@ -4905,7 +4905,7 @@
         <v>164</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4914,10 +4914,10 @@
         <v>165</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>167</v>
@@ -4928,7 +4928,7 @@
         <v>164</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4937,10 +4937,10 @@
         <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>167</v>
@@ -4951,7 +4951,7 @@
         <v>164</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -4960,10 +4960,10 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>167</v>
@@ -4974,7 +4974,7 @@
         <v>164</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -4983,10 +4983,10 @@
         <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>167</v>
@@ -4997,7 +4997,7 @@
         <v>164</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5006,10 +5006,10 @@
         <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>167</v>
@@ -5020,7 +5020,7 @@
         <v>164</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5029,7 +5029,7 @@
         <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>166</v>
@@ -5043,19 +5043,19 @@
         <v>164</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>167</v>
@@ -5066,7 +5066,7 @@
         <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>17</v>
@@ -5075,7 +5075,7 @@
         <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5089,7 +5089,7 @@
         <v>164</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>17</v>
@@ -5098,7 +5098,7 @@
         <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5109,25 +5109,25 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -5135,19 +5135,19 @@
         <v>168</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>32</v>
@@ -5158,19 +5158,19 @@
         <v>168</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>32</v>
@@ -5181,16 +5181,16 @@
         <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5204,44 +5204,21 @@
         <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
@@ -1665,7 +1665,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>72</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
@@ -4793,7 +4793,7 @@
         <v>95</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>165</v>
@@ -4816,7 +4816,7 @@
         <v>97</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>165</v>
@@ -4825,7 +4825,7 @@
         <v>98</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>167</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_121.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -607,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1458,7 +1470,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>72</v>
@@ -1481,7 +1493,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>72</v>
@@ -1527,7 +1539,7 @@
         <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>72</v>
@@ -1550,7 +1562,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>72</v>
@@ -1616,7 +1628,7 @@
         <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1625,7 +1637,7 @@
         <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1639,7 +1651,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1648,7 +1660,7 @@
         <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1662,7 +1674,7 @@
         <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1895,7 +1907,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>72</v>
@@ -1918,7 +1930,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>72</v>
@@ -1967,10 +1979,10 @@
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1984,16 +1996,16 @@
         <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,65 +2016,65 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2085,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2108,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2131,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2154,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2177,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2200,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2223,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2246,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2269,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2292,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2315,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2338,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2361,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2384,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2407,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2430,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2453,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2476,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2499,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2522,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2545,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2568,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,114 +2591,114 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2694,19 +2706,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2729,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2752,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2763,22 +2775,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2786,22 +2798,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2809,22 +2821,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2832,22 +2844,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2855,19 +2867,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2890,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2901,19 +2913,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>20</v>
@@ -2924,22 +2936,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>32</v>
@@ -2947,22 +2959,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -2970,19 +2982,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>20</v>
@@ -2993,19 +3005,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3016,22 +3028,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>32</v>
@@ -3039,22 +3051,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -3062,19 +3074,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>20</v>
@@ -3085,22 +3097,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>32</v>
@@ -3108,22 +3120,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>32</v>
@@ -3131,19 +3143,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3154,22 +3166,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>32</v>
@@ -3177,19 +3189,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3200,19 +3212,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>20</v>
@@ -3223,22 +3235,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>32</v>
@@ -3246,22 +3258,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>32</v>
@@ -3269,22 +3281,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>32</v>
@@ -3292,22 +3304,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>32</v>
@@ -3315,19 +3327,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3338,22 +3350,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>32</v>
@@ -3361,19 +3373,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,22 +3396,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>32</v>
@@ -3407,22 +3419,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>32</v>
@@ -3430,22 +3442,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>32</v>
@@ -3453,19 +3465,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3476,22 +3488,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>32</v>
@@ -3499,19 +3511,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,22 +3534,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>32</v>
@@ -3545,19 +3557,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>20</v>
@@ -3568,19 +3580,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3591,19 +3603,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3614,22 +3626,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>32</v>
@@ -3637,22 +3649,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>32</v>
@@ -3660,22 +3672,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>32</v>
@@ -3683,22 +3695,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>32</v>
@@ -3706,22 +3718,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
@@ -3729,19 +3741,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
@@ -3752,19 +3764,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3775,22 +3787,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>32</v>
@@ -3798,19 +3810,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
@@ -3821,22 +3833,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>32</v>
@@ -3844,19 +3856,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3867,22 +3879,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>32</v>
@@ -3890,19 +3902,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3913,19 +3925,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>20</v>
@@ -3936,19 +3948,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3959,19 +3971,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>20</v>
@@ -3982,19 +3994,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>20</v>
@@ -4005,19 +4017,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4028,19 +4040,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4051,19 +4063,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4074,19 +4086,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4097,22 +4109,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>32</v>
@@ -4120,19 +4132,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4143,22 +4155,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>32</v>
@@ -4166,22 +4178,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>32</v>
@@ -4189,19 +4201,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4212,19 +4224,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4235,19 +4247,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4258,19 +4270,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4281,19 +4293,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4304,19 +4316,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4327,19 +4339,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4350,10 +4362,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
@@ -4362,7 +4374,7 @@
         <v>63</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4373,19 +4385,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4396,19 +4408,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4419,19 +4431,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4442,19 +4454,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4465,19 +4477,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4488,19 +4500,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4511,600 +4523,600 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196">
@@ -5112,22 +5124,22 @@
         <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197">
@@ -5135,22 +5147,22 @@
         <v>168</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -5158,22 +5170,22 @@
         <v>168</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199">
@@ -5181,22 +5193,22 @@
         <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200">
@@ -5204,21 +5216,251 @@
         <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>32</v>
       </c>
     </row>
